--- a/vba/Excelシート統合編集ツール_設計.xlsx
+++ b/vba/Excelシート統合編集ツール_設計.xlsx
@@ -680,9 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
